--- a/database/Surf_knn.xlsx
+++ b/database/Surf_knn.xlsx
@@ -117,10 +117,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U298"/>
+  <dimension ref="A1:V298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="O17" sqref="E17:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -459,7 +468,7 @@
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -478,7 +487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -489,7 +498,7 @@
         <v>5.6269998550415004</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -532,8 +541,11 @@
       <c r="U4">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -576,8 +588,11 @@
       <c r="U5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -620,8 +635,11 @@
       <c r="U6">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -664,8 +682,11 @@
       <c r="U7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -708,8 +729,11 @@
       <c r="U8">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -752,8 +776,11 @@
       <c r="U9">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -796,8 +823,11 @@
       <c r="U10">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -840,8 +870,11 @@
       <c r="U11">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -884,8 +917,11 @@
       <c r="U12">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -928,8 +964,11 @@
       <c r="U13">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -972,8 +1011,11 @@
       <c r="U14">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -984,7 +1026,7 @@
         <v>4.1459999084472603</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -995,7 +1037,7 @@
         <v>5.6080000400543204</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1005,8 +1047,41 @@
       <c r="C17">
         <v>5.8259999752044598</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1016,8 +1091,49 @@
       <c r="C18">
         <v>0.77700018882751398</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18" s="1">
+        <f>AVERAGE(E19:E48)</f>
+        <v>5.468866666158033</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ref="F18:N18" si="0">AVERAGE(F19:F48)</f>
+        <v>5.4325500011444001</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4404332955678241</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2834499597549351</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6937666734059613</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3431666771570816</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2676000118255546</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1192333539326933</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6863999923070194</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="0"/>
+        <v>4.95680003166198</v>
+      </c>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1027,8 +1143,38 @@
       <c r="C19">
         <v>14.566999912261901</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19">
+        <v>5.6269998550415004</v>
+      </c>
+      <c r="F19">
+        <v>8.50499987602233</v>
+      </c>
+      <c r="G19">
+        <v>7.5350000858306796</v>
+      </c>
+      <c r="H19">
+        <v>5.7960000038146902</v>
+      </c>
+      <c r="I19">
+        <v>5.7829999923706001</v>
+      </c>
+      <c r="J19">
+        <v>5.9809999465942303</v>
+      </c>
+      <c r="K19">
+        <v>5.6419999599456698</v>
+      </c>
+      <c r="L19">
+        <v>5.5680000782012904</v>
+      </c>
+      <c r="M19">
+        <v>7.2479999065399099</v>
+      </c>
+      <c r="N19">
+        <v>5.5620000362396196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1038,8 +1184,38 @@
       <c r="C20">
         <v>4.3789999485015798</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20">
+        <v>5.1930000782012904</v>
+      </c>
+      <c r="F20">
+        <v>5.18300008773803</v>
+      </c>
+      <c r="G20">
+        <v>4.4930000305175701</v>
+      </c>
+      <c r="H20">
+        <v>4.0220000743865896</v>
+      </c>
+      <c r="I20">
+        <v>4.0880000591277996</v>
+      </c>
+      <c r="J20">
+        <v>5.34800004959106</v>
+      </c>
+      <c r="K20">
+        <v>3.9000000953674299</v>
+      </c>
+      <c r="L20">
+        <v>3.87999987602233</v>
+      </c>
+      <c r="M20">
+        <v>3.8299999237060498</v>
+      </c>
+      <c r="N20">
+        <v>3.8420000076293901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1049,8 +1225,38 @@
       <c r="C21">
         <v>0.63800001144409102</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21">
+        <v>7.36700010299682</v>
+      </c>
+      <c r="F21">
+        <v>6.8270001411437899</v>
+      </c>
+      <c r="G21">
+        <v>6.1189999580383301</v>
+      </c>
+      <c r="H21">
+        <v>5.8270001411437899</v>
+      </c>
+      <c r="I21">
+        <v>6.0030000209808296</v>
+      </c>
+      <c r="J21">
+        <v>6.2079999446868896</v>
+      </c>
+      <c r="K21">
+        <v>5.6219999790191597</v>
+      </c>
+      <c r="L21">
+        <v>5.5240001678466797</v>
+      </c>
+      <c r="M21">
+        <v>5.5770001411437899</v>
+      </c>
+      <c r="N21">
+        <v>5.5569999217986998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1060,8 +1266,38 @@
       <c r="C22">
         <v>6.7520000934600803</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22">
+        <v>6.9270000457763601</v>
+      </c>
+      <c r="F22">
+        <v>5.9760000705718896</v>
+      </c>
+      <c r="G22">
+        <v>6.1840000152587802</v>
+      </c>
+      <c r="H22">
+        <v>7.8700001239776602</v>
+      </c>
+      <c r="I22">
+        <v>6.2310001850128103</v>
+      </c>
+      <c r="J22">
+        <v>8.1370000839233398</v>
+      </c>
+      <c r="K22">
+        <v>7.7320001125335596</v>
+      </c>
+      <c r="L22">
+        <v>5.7980000972747803</v>
+      </c>
+      <c r="M22">
+        <v>5.8269999027252197</v>
+      </c>
+      <c r="N22">
+        <v>5.7980000972747803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1071,8 +1307,38 @@
       <c r="C23">
         <v>0.75699996948242099</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E23">
+        <v>0.99399995803832997</v>
+      </c>
+      <c r="F23">
+        <v>0.81800007820129395</v>
+      </c>
+      <c r="G23">
+        <v>0.81099987030029297</v>
+      </c>
+      <c r="H23">
+        <v>1.04499983787536</v>
+      </c>
+      <c r="I23">
+        <v>0.79299998283386197</v>
+      </c>
+      <c r="J23">
+        <v>1.0310001373291</v>
+      </c>
+      <c r="K23">
+        <v>1.0950000286102199</v>
+      </c>
+      <c r="L23">
+        <v>0.77500009536743097</v>
+      </c>
+      <c r="M23">
+        <v>0.76599979400634699</v>
+      </c>
+      <c r="N23">
+        <v>0.78800010681152299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1082,8 +1348,38 @@
       <c r="C24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24">
+        <v>14.891999959945601</v>
+      </c>
+      <c r="F24">
+        <v>15.0709998607635</v>
+      </c>
+      <c r="G24">
+        <v>15.164999961853001</v>
+      </c>
+      <c r="H24">
+        <v>18.016999959945601</v>
+      </c>
+      <c r="I24">
+        <v>19.9879999160766</v>
+      </c>
+      <c r="J24">
+        <v>18.838000059127801</v>
+      </c>
+      <c r="K24">
+        <v>20.09099984169</v>
+      </c>
+      <c r="L24">
+        <v>14.3800001144409</v>
+      </c>
+      <c r="M24">
+        <v>14.2980000972747</v>
+      </c>
+      <c r="N24">
+        <v>14.2210001945495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1093,8 +1389,38 @@
       <c r="C25">
         <v>5.6679999828338596</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25">
+        <v>4.3539998531341499</v>
+      </c>
+      <c r="F25">
+        <v>4.4889998435974103</v>
+      </c>
+      <c r="G25">
+        <v>5.8789999485015798</v>
+      </c>
+      <c r="H25">
+        <v>4.4949998855590803</v>
+      </c>
+      <c r="I25">
+        <v>4.9049999713897696</v>
+      </c>
+      <c r="J25">
+        <v>5.2159998416900599</v>
+      </c>
+      <c r="K25">
+        <v>4.4149999618530202</v>
+      </c>
+      <c r="L25">
+        <v>5.7249999046325604</v>
+      </c>
+      <c r="M25">
+        <v>4.3280000686645499</v>
+      </c>
+      <c r="N25">
+        <v>4.3069999217986998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1104,8 +1430,38 @@
       <c r="C26">
         <v>3.8780000209808301</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26">
+        <v>0.64100003242492598</v>
+      </c>
+      <c r="F26">
+        <v>0.64499998092651301</v>
+      </c>
+      <c r="G26">
+        <v>0.95700001716613703</v>
+      </c>
+      <c r="H26">
+        <v>0.64199995994567804</v>
+      </c>
+      <c r="I26">
+        <v>0.65100002288818304</v>
+      </c>
+      <c r="J26">
+        <v>0.67600011825561501</v>
+      </c>
+      <c r="K26">
+        <v>0.70499992370605402</v>
+      </c>
+      <c r="L26">
+        <v>0.83500003814697199</v>
+      </c>
+      <c r="M26">
+        <v>0.625</v>
+      </c>
+      <c r="N26">
+        <v>0.63200020790100098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1115,8 +1471,38 @@
       <c r="C27">
         <v>6.55800008773803</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="E27">
+        <v>5.0169999599456698</v>
+      </c>
+      <c r="F27">
+        <v>5.9289999008178702</v>
+      </c>
+      <c r="G27">
+        <v>7.0279998779296804</v>
+      </c>
+      <c r="H27">
+        <v>5.20999979972839</v>
+      </c>
+      <c r="I27">
+        <v>5.8489999771118102</v>
+      </c>
+      <c r="J27">
+        <v>6.2439999580383301</v>
+      </c>
+      <c r="K27">
+        <v>5.0299999713897696</v>
+      </c>
+      <c r="L27">
+        <v>6.6879999637603698</v>
+      </c>
+      <c r="M27">
+        <v>4.9760000705718896</v>
+      </c>
+      <c r="N27">
+        <v>4.9969999790191597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1126,8 +1512,38 @@
       <c r="C28">
         <v>7.4509999752044598</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28">
+        <v>0.720999956130981</v>
+      </c>
+      <c r="F28">
+        <v>0.75</v>
+      </c>
+      <c r="G28">
+        <v>0.625</v>
+      </c>
+      <c r="H28">
+        <v>0.57200002670287997</v>
+      </c>
+      <c r="I28">
+        <v>0.71300005912780695</v>
+      </c>
+      <c r="J28">
+        <v>0.67499995231628396</v>
+      </c>
+      <c r="K28">
+        <v>0.566999912261962</v>
+      </c>
+      <c r="L28">
+        <v>0.57500004768371504</v>
+      </c>
+      <c r="M28">
+        <v>0.55199980735778797</v>
+      </c>
+      <c r="N28">
+        <v>0.549000024795532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1137,8 +1553,38 @@
       <c r="C29">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="E29">
+        <v>7.4480001926422101</v>
+      </c>
+      <c r="F29">
+        <v>7.5499999523162797</v>
+      </c>
+      <c r="G29">
+        <v>6.7379999160766602</v>
+      </c>
+      <c r="H29">
+        <v>7.5929999351501403</v>
+      </c>
+      <c r="I29">
+        <v>6.3099999427795401</v>
+      </c>
+      <c r="J29">
+        <v>7.6410000324249197</v>
+      </c>
+      <c r="K29">
+        <v>5.5600001811981201</v>
+      </c>
+      <c r="L29">
+        <v>5.5559999942779497</v>
+      </c>
+      <c r="M29">
+        <v>5.53200006484985</v>
+      </c>
+      <c r="N29">
+        <v>6.8019998073577801</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1148,8 +1594,38 @@
       <c r="C30">
         <v>20.780999898910501</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="E30">
+        <v>4.1459999084472603</v>
+      </c>
+      <c r="F30">
+        <v>4.1320002079010001</v>
+      </c>
+      <c r="G30">
+        <v>4.3029999732971103</v>
+      </c>
+      <c r="H30">
+        <v>5.3120000362396196</v>
+      </c>
+      <c r="I30">
+        <v>4.9590001106262198</v>
+      </c>
+      <c r="J30">
+        <v>4.2119998931884703</v>
+      </c>
+      <c r="K30">
+        <v>5.17000007629394</v>
+      </c>
+      <c r="L30">
+        <v>3.8599998950958199</v>
+      </c>
+      <c r="M30">
+        <v>3.8929998874664302</v>
+      </c>
+      <c r="N30">
+        <v>4.4720001220703098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1159,8 +1635,38 @@
       <c r="C31">
         <v>6.46000003814697</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="E31">
+        <v>5.6080000400543204</v>
+      </c>
+      <c r="F31">
+        <v>5.7709999084472603</v>
+      </c>
+      <c r="G31">
+        <v>6.6849999427795401</v>
+      </c>
+      <c r="H31">
+        <v>6.31599998474121</v>
+      </c>
+      <c r="I31">
+        <v>5.8980000019073398</v>
+      </c>
+      <c r="J31">
+        <v>5.7190001010894704</v>
+      </c>
+      <c r="K31">
+        <v>7.4560000896453804</v>
+      </c>
+      <c r="L31">
+        <v>5.5759999752044598</v>
+      </c>
+      <c r="M31">
+        <v>5.5339999198913503</v>
+      </c>
+      <c r="N31">
+        <v>5.9210000038146902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1170,8 +1676,38 @@
       <c r="C32">
         <v>1.1819999217987001</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32">
+        <v>5.8259999752044598</v>
+      </c>
+      <c r="F32">
+        <v>6.3329999446868896</v>
+      </c>
+      <c r="G32">
+        <v>6.0689997673034597</v>
+      </c>
+      <c r="H32">
+        <v>6.1069998741149902</v>
+      </c>
+      <c r="I32">
+        <v>6.7740001678466797</v>
+      </c>
+      <c r="J32">
+        <v>5.9210000038146902</v>
+      </c>
+      <c r="K32">
+        <v>6.3920001983642498</v>
+      </c>
+      <c r="L32">
+        <v>5.7769999504089302</v>
+      </c>
+      <c r="M32">
+        <v>5.7970001697540203</v>
+      </c>
+      <c r="N32">
+        <v>6.5279998779296804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1181,8 +1717,38 @@
       <c r="C33">
         <v>7.1430001258850098</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33">
+        <v>0.77700018882751398</v>
+      </c>
+      <c r="F33">
+        <v>0.83000016212463301</v>
+      </c>
+      <c r="G33">
+        <v>0.94300007820129395</v>
+      </c>
+      <c r="H33">
+        <v>0.94299983978271396</v>
+      </c>
+      <c r="I33">
+        <v>0.799000024795532</v>
+      </c>
+      <c r="J33">
+        <v>0.78299999237060502</v>
+      </c>
+      <c r="K33">
+        <v>0.81599998474121005</v>
+      </c>
+      <c r="L33">
+        <v>0.76500010490417403</v>
+      </c>
+      <c r="M33">
+        <v>0.76599979400634699</v>
+      </c>
+      <c r="N33">
+        <v>0.95900011062622004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1192,8 +1758,38 @@
       <c r="C34">
         <v>0.81399989128112704</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="E34">
+        <v>14.566999912261901</v>
+      </c>
+      <c r="F34">
+        <v>15.4650001525878</v>
+      </c>
+      <c r="G34">
+        <v>20.819000005722</v>
+      </c>
+      <c r="H34">
+        <v>14.8099999427795</v>
+      </c>
+      <c r="I34">
+        <v>20.681999921798699</v>
+      </c>
+      <c r="J34">
+        <v>14.5550000667572</v>
+      </c>
+      <c r="K34">
+        <v>14.297999858856199</v>
+      </c>
+      <c r="L34">
+        <v>18.830000162124598</v>
+      </c>
+      <c r="M34">
+        <v>14.257999897003099</v>
+      </c>
+      <c r="N34">
+        <v>15.9079999923706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1203,8 +1799,38 @@
       <c r="C35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="E35">
+        <v>4.3789999485015798</v>
+      </c>
+      <c r="F35">
+        <v>6.375</v>
+      </c>
+      <c r="G35">
+        <v>4.8109998703002903</v>
+      </c>
+      <c r="H35">
+        <v>4.5149998664855904</v>
+      </c>
+      <c r="I35">
+        <v>5.3339998722076398</v>
+      </c>
+      <c r="J35">
+        <v>4.4239997863769496</v>
+      </c>
+      <c r="K35">
+        <v>4.4370000362396196</v>
+      </c>
+      <c r="L35">
+        <v>4.6410000324249197</v>
+      </c>
+      <c r="M35">
+        <v>4.3200001716613698</v>
+      </c>
+      <c r="N35">
+        <v>4.36099982261657</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1214,8 +1840,38 @@
       <c r="C36">
         <v>8.50499987602233</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="E36">
+        <v>0.63800001144409102</v>
+      </c>
+      <c r="F36">
+        <v>0.86800003051757801</v>
+      </c>
+      <c r="G36">
+        <v>0.76300001144409102</v>
+      </c>
+      <c r="H36">
+        <v>0.64899992942810003</v>
+      </c>
+      <c r="I36">
+        <v>0.75600004196166903</v>
+      </c>
+      <c r="J36">
+        <v>0.64100003242492598</v>
+      </c>
+      <c r="K36">
+        <v>0.64199995994567804</v>
+      </c>
+      <c r="L36">
+        <v>0.62199997901916504</v>
+      </c>
+      <c r="M36">
+        <v>0.62699985504150302</v>
+      </c>
+      <c r="N36">
+        <v>1.643000125885</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1225,8 +1881,38 @@
       <c r="C37">
         <v>5.18300008773803</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E37">
+        <v>6.7520000934600803</v>
+      </c>
+      <c r="F37">
+        <v>6.4259998798370299</v>
+      </c>
+      <c r="G37">
+        <v>5.2190001010894704</v>
+      </c>
+      <c r="H37">
+        <v>5.1879999637603698</v>
+      </c>
+      <c r="I37">
+        <v>5.3509998321533203</v>
+      </c>
+      <c r="J37">
+        <v>6.6980001926422101</v>
+      </c>
+      <c r="K37">
+        <v>5.0290000438690097</v>
+      </c>
+      <c r="L37">
+        <v>5.0179998874664298</v>
+      </c>
+      <c r="M37">
+        <v>4.9880001544952304</v>
+      </c>
+      <c r="N37">
+        <v>5.6660001277923504</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1236,8 +1922,38 @@
       <c r="C38">
         <v>6.8270001411437899</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="E38">
+        <v>0.75699996948242099</v>
+      </c>
+      <c r="F38">
+        <v>0.70799994468688898</v>
+      </c>
+      <c r="G38">
+        <v>0.58099985122680597</v>
+      </c>
+      <c r="H38">
+        <v>0.74000000953674305</v>
+      </c>
+      <c r="I38">
+        <v>0.584999799728393</v>
+      </c>
+      <c r="J38">
+        <v>0.70899987220764105</v>
+      </c>
+      <c r="K38">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="L38">
+        <v>0.61599993705749501</v>
+      </c>
+      <c r="M38">
+        <v>0.546999931335449</v>
+      </c>
+      <c r="N38">
+        <v>0.62300014495849598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1247,8 +1963,26 @@
       <c r="C39">
         <v>5.9760000705718896</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="E39">
+        <v>5.6679999828338596</v>
+      </c>
+      <c r="G39">
+        <v>7.5609998703002903</v>
+      </c>
+      <c r="I39">
+        <v>7.6989998817443803</v>
+      </c>
+      <c r="J39">
+        <v>5.6449999809265101</v>
+      </c>
+      <c r="L39">
+        <v>5.6089999675750697</v>
+      </c>
+      <c r="M39">
+        <v>5.5929999351501403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1258,8 +1992,26 @@
       <c r="C40">
         <v>0.81800007820129395</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="E40">
+        <v>3.8780000209808301</v>
+      </c>
+      <c r="G40">
+        <v>5.3359999656677202</v>
+      </c>
+      <c r="I40">
+        <v>5.7210001945495597</v>
+      </c>
+      <c r="J40">
+        <v>4.1579999923706001</v>
+      </c>
+      <c r="L40">
+        <v>3.8889999389648402</v>
+      </c>
+      <c r="M40">
+        <v>3.8740000724792401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -1269,8 +2021,26 @@
       <c r="C41">
         <v>15.0709998607635</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="E41">
+        <v>6.55800008773803</v>
+      </c>
+      <c r="G41">
+        <v>5.7119998931884703</v>
+      </c>
+      <c r="I41">
+        <v>6.0380001068115199</v>
+      </c>
+      <c r="J41">
+        <v>5.7409999370574898</v>
+      </c>
+      <c r="L41">
+        <v>7.3459999561309797</v>
+      </c>
+      <c r="M41">
+        <v>5.57200002670288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1280,8 +2050,26 @@
       <c r="C42">
         <v>4.4889998435974103</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="E42">
+        <v>7.4509999752044598</v>
+      </c>
+      <c r="G42">
+        <v>5.97299981117248</v>
+      </c>
+      <c r="I42">
+        <v>5.9839999675750697</v>
+      </c>
+      <c r="J42">
+        <v>5.8760001659393302</v>
+      </c>
+      <c r="L42">
+        <v>8.5729999542236293</v>
+      </c>
+      <c r="M42">
+        <v>5.76899981498718</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -1291,8 +2079,26 @@
       <c r="C43">
         <v>0.64499998092651301</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="E43">
+        <v>1.5</v>
+      </c>
+      <c r="G43">
+        <v>0.82899999618530196</v>
+      </c>
+      <c r="I43">
+        <v>0.81199979782104403</v>
+      </c>
+      <c r="J43">
+        <v>0.80500006675720204</v>
+      </c>
+      <c r="L43">
+        <v>1.10800004005432</v>
+      </c>
+      <c r="M43">
+        <v>0.76600003242492598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1302,8 +2108,26 @@
       <c r="C44">
         <v>5.9289999008178702</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="E44">
+        <v>20.780999898910501</v>
+      </c>
+      <c r="G44">
+        <v>14.9509999752044</v>
+      </c>
+      <c r="I44">
+        <v>17.601000070571899</v>
+      </c>
+      <c r="J44">
+        <v>14.5099999904632</v>
+      </c>
+      <c r="L44">
+        <v>14.9290001392364</v>
+      </c>
+      <c r="M44">
+        <v>14.246000051498401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1313,8 +2137,26 @@
       <c r="C45">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="E45">
+        <v>6.46000003814697</v>
+      </c>
+      <c r="G45">
+        <v>4.51300001144409</v>
+      </c>
+      <c r="I45">
+        <v>5.9090001583099303</v>
+      </c>
+      <c r="J45">
+        <v>6.1730000972747803</v>
+      </c>
+      <c r="L45">
+        <v>4.9230000972747803</v>
+      </c>
+      <c r="M45">
+        <v>4.3380000591277996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1324,8 +2166,26 @@
       <c r="C46" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="E46">
+        <v>1.1819999217987001</v>
+      </c>
+      <c r="G46">
+        <v>0.65799999237060502</v>
+      </c>
+      <c r="I46">
+        <v>1.1589999198913501</v>
+      </c>
+      <c r="J46">
+        <v>0.88599991798400801</v>
+      </c>
+      <c r="L46">
+        <v>0.62899994850158603</v>
+      </c>
+      <c r="M46">
+        <v>0.62900018692016602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -1335,8 +2195,26 @@
       <c r="C47">
         <v>7.5499999523162797</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="E47">
+        <v>7.1430001258850098</v>
+      </c>
+      <c r="G47">
+        <v>5.1679999828338596</v>
+      </c>
+      <c r="I47">
+        <v>6.7510001659393302</v>
+      </c>
+      <c r="J47">
+        <v>6.2880001068115199</v>
+      </c>
+      <c r="L47">
+        <v>5.0140001773834202</v>
+      </c>
+      <c r="M47">
+        <v>4.9709999561309797</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -1345,6 +2223,24 @@
       </c>
       <c r="C48">
         <v>4.1320002079010001</v>
+      </c>
+      <c r="E48">
+        <v>0.81399989128112704</v>
+      </c>
+      <c r="G48">
+        <v>0.78500008583068803</v>
+      </c>
+      <c r="I48">
+        <v>0.68700003623962402</v>
+      </c>
+      <c r="J48">
+        <v>0.55599999427795399</v>
+      </c>
+      <c r="L48">
+        <v>0.54800009727478005</v>
+      </c>
+      <c r="M48">
+        <v>0.54500007629394498</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4099,6 +4995,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/database/Surf_knn.xlsx
+++ b/database/Surf_knn.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="surf_bf_knn_add" localSheetId="0">Feuil1!$E$58:$G$127</definedName>
     <definedName name="surf_bf_results_stats" localSheetId="0">Feuil1!$A$2:$C$298</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -20,7 +21,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="surf_bf_results_stats" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="1" name="surf_bf_knn_add" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\ACHAR\Documents\PFEE\database\surf_bf_knn_add.csv">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="surf_bf_results_stats" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\ACHAR\Documents\PFEE\database\surf_bf_results_stats.csv">
       <textFields count="3">
         <textField/>
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="33">
   <si>
     <t>Surf</t>
   </si>
@@ -112,6 +121,27 @@
   <si>
     <t>surf_bf_results_stats.csv</t>
   </si>
+  <si>
+    <t>surf_bf_knn_add.csv</t>
+  </si>
+  <si>
+    <t>condame.jpg</t>
+  </si>
+  <si>
+    <t>new\condame_blurred.jpg</t>
+  </si>
+  <si>
+    <t>new\condame_lumino.jpg</t>
+  </si>
+  <si>
+    <t>new\likeblack_45.png</t>
+  </si>
+  <si>
+    <t>new\likeblack_cropped.jpg</t>
+  </si>
+  <si>
+    <t>new\memory_blurred.jpg</t>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +197,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="surf_bf_results_stats" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="surf_bf_knn_add" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="surf_bf_results_stats" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="O17" sqref="E17:O18"/>
+    <sheetView tabSelected="1" topLeftCell="B118" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -466,6 +500,9 @@
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -2243,7 +2280,7 @@
         <v>0.54500007629394498</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2254,7 +2291,7 @@
         <v>5.7709999084472603</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -2265,7 +2302,7 @@
         <v>6.3329999446868896</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2276,7 +2313,7 @@
         <v>0.83000016212463301</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2324,7 @@
         <v>15.4650001525878</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -2298,7 +2335,7 @@
         <v>6.375</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -2309,7 +2346,7 @@
         <v>0.86800003051757801</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -2320,7 +2357,7 @@
         <v>6.4259998798370299</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -2330,8 +2367,11 @@
       <c r="C56">
         <v>0.70799994468688898</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2342,7 +2382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -2352,8 +2392,17 @@
       <c r="C58">
         <v>7.5350000858306796</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2363,8 +2412,17 @@
       <c r="C59">
         <v>4.4930000305175701</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59">
+        <v>5.7400000095367396</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -2374,8 +2432,17 @@
       <c r="C60">
         <v>6.1189999580383301</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -2385,8 +2452,17 @@
       <c r="C61">
         <v>6.1840000152587802</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="E61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61">
+        <v>100</v>
+      </c>
+      <c r="G61">
+        <v>6.0199999809265101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -2396,8 +2472,17 @@
       <c r="C62">
         <v>0.81099987030029297</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -2407,8 +2492,17 @@
       <c r="C63">
         <v>15.164999961853001</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0.32999992370605402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -2418,8 +2512,17 @@
       <c r="C64">
         <v>5.8789999485015798</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64">
+        <v>34</v>
+      </c>
+      <c r="G64">
+        <v>17.379000186920099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -2429,8 +2532,17 @@
       <c r="C65">
         <v>0.95700001716613703</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>5.0940001010894704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -2440,8 +2552,17 @@
       <c r="C66">
         <v>7.0279998779296804</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="E66" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>6.2140002250671298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -2451,8 +2572,17 @@
       <c r="C67">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0.63000011444091797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -2462,8 +2592,17 @@
       <c r="C68" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2473,8 +2612,17 @@
       <c r="C69">
         <v>6.7379999160766602</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0.51500010490417403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2484,8 +2632,17 @@
       <c r="C70">
         <v>4.3029999732971103</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70">
+        <v>39</v>
+      </c>
+      <c r="G70">
+        <v>16.2870001792907</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -2495,8 +2652,17 @@
       <c r="C71">
         <v>6.6849999427795401</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>5.0469999313354403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2506,8 +2672,17 @@
       <c r="C72">
         <v>6.0689997673034597</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>6.0270001888275102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -2517,8 +2692,17 @@
       <c r="C73">
         <v>0.94300007820129395</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="E73" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0.63699984550475997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2528,8 +2712,17 @@
       <c r="C74">
         <v>20.819000005722</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -2539,8 +2732,17 @@
       <c r="C75">
         <v>4.8109998703002903</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0.33200001716613697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -2550,8 +2752,17 @@
       <c r="C76">
         <v>0.76300001144409102</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76">
+        <v>44</v>
+      </c>
+      <c r="G76">
+        <v>20.240000009536701</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -2561,8 +2772,17 @@
       <c r="C77">
         <v>5.2190001010894704</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>7.9690001010894704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2572,8 +2792,17 @@
       <c r="C78">
         <v>0.58099985122680597</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="E78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>8.5989999771118093</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -2583,8 +2812,17 @@
       <c r="C79" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -2594,8 +2832,17 @@
       <c r="C80">
         <v>7.5609998703002903</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2605,8 +2852,17 @@
       <c r="C81">
         <v>5.3359999656677202</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="E81" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0.325999975204467</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -2616,8 +2872,17 @@
       <c r="C82">
         <v>5.7119998931884703</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82">
+        <v>48</v>
+      </c>
+      <c r="G82">
+        <v>16.973999977111799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2627,8 +2892,17 @@
       <c r="C83">
         <v>5.97299981117248</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="E83" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>5.1059999465942303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2638,8 +2912,17 @@
       <c r="C84">
         <v>0.82899999618530196</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="E84" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>6.4309999942779497</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2649,8 +2932,17 @@
       <c r="C85">
         <v>14.9509999752044</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="E85" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0.64800000190734797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2660,8 +2952,17 @@
       <c r="C86">
         <v>4.51300001144409</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2671,8 +2972,17 @@
       <c r="C87">
         <v>0.65799999237060502</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="E87" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>0.36899995803833002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2682,8 +2992,17 @@
       <c r="C88">
         <v>5.1679999828338596</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88">
+        <v>52</v>
+      </c>
+      <c r="G88">
+        <v>16.287999868392902</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2693,8 +3012,17 @@
       <c r="C89">
         <v>0.78500008583068803</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>7.9690001010894704</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -2704,8 +3032,17 @@
       <c r="C90" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="E90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>7.5100002288818297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -2715,8 +3052,17 @@
       <c r="C91">
         <v>5.8579998016357404</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0.66599988937377896</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -2726,8 +3072,17 @@
       <c r="C92">
         <v>4.2030000686645499</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -2737,8 +3092,17 @@
       <c r="C93">
         <v>5.8229999542236301</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="E93" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>0.33899998664855902</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -2748,8 +3112,17 @@
       <c r="C94">
         <v>6.0230000019073398</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="E94" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94">
+        <v>56</v>
+      </c>
+      <c r="G94">
+        <v>20.618999958038302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -2759,8 +3132,17 @@
       <c r="C95">
         <v>0.80699992179870605</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="E95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>7.9620001316070503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -2770,8 +3152,17 @@
       <c r="C96">
         <v>15.0269999504089</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="E96" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>9.3229999542236293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -2781,8 +3172,17 @@
       <c r="C97">
         <v>6.1139998435974103</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="E97" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>0.66799998283386197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -2792,8 +3192,17 @@
       <c r="C98">
         <v>0.85100007057189897</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -2803,8 +3212,17 @@
       <c r="C99">
         <v>6.6890001296996999</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+      <c r="G99">
+        <v>0.33600020408630299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -2814,8 +3232,17 @@
       <c r="C100">
         <v>0.60699987411499001</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="E100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100">
+        <v>61</v>
+      </c>
+      <c r="G100">
+        <v>16.399999856948799</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -2825,8 +3252,17 @@
       <c r="C101" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="E101" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+      <c r="G101">
+        <v>5.2530000209808296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -2836,8 +3272,17 @@
       <c r="C102">
         <v>5.7960000038146902</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="E102" t="s">
+        <v>31</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102">
+        <v>10.420000076293899</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2847,8 +3292,17 @@
       <c r="C103">
         <v>4.0220000743865896</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="E103" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>1.01400017738342</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -2858,8 +3312,17 @@
       <c r="C104">
         <v>5.8270001411437899</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -2869,8 +3332,17 @@
       <c r="C105">
         <v>7.8700001239776602</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="E105" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105">
+        <v>0.32800006866455</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -2880,8 +3352,17 @@
       <c r="C106">
         <v>1.04499983787536</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="E106" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106">
+        <v>66</v>
+      </c>
+      <c r="G106">
+        <v>16.382999897003099</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -2891,8 +3372,17 @@
       <c r="C107">
         <v>18.016999959945601</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="E107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107">
+        <v>5.1399998664855904</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -2902,8 +3392,17 @@
       <c r="C108">
         <v>4.4949998855590803</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="E108" t="s">
+        <v>31</v>
+      </c>
+      <c r="F108">
+        <v>9</v>
+      </c>
+      <c r="G108">
+        <v>6.1849999427795401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -2913,8 +3412,17 @@
       <c r="C109">
         <v>0.64199995994567804</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="E109" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109">
+        <v>9</v>
+      </c>
+      <c r="G109">
+        <v>1.0210001468658401</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -2924,8 +3432,17 @@
       <c r="C110">
         <v>5.20999979972839</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -2935,8 +3452,17 @@
       <c r="C111">
         <v>0.57200002670287997</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="E111" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111">
+        <v>23</v>
+      </c>
+      <c r="G111">
+        <v>0.325999975204467</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -2946,8 +3472,17 @@
       <c r="C112" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="E112" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112">
+        <v>72</v>
+      </c>
+      <c r="G112">
+        <v>16.746999979019101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -2957,8 +3492,17 @@
       <c r="C113">
         <v>7.5929999351501403</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="E113" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113">
+        <v>23</v>
+      </c>
+      <c r="G113">
+        <v>5.0920000076293901</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -2968,8 +3512,17 @@
       <c r="C114">
         <v>5.3120000362396196</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="E114" t="s">
+        <v>31</v>
+      </c>
+      <c r="F114">
+        <v>22</v>
+      </c>
+      <c r="G114">
+        <v>6.0140001773834202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -2979,8 +3532,17 @@
       <c r="C115">
         <v>6.31599998474121</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="E115" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115">
+        <v>18</v>
+      </c>
+      <c r="G115">
+        <v>0.64000010490417403</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -2990,8 +3552,17 @@
       <c r="C116">
         <v>6.1069998741149902</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -3001,8 +3572,17 @@
       <c r="C117">
         <v>0.94299983978271396</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="E117" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117">
+        <v>47</v>
+      </c>
+      <c r="G117">
+        <v>0.30900001525878901</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -3012,8 +3592,17 @@
       <c r="C118">
         <v>14.8099999427795</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="E118" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118">
+        <v>83</v>
+      </c>
+      <c r="G118">
+        <v>16.051000118255601</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -3023,8 +3612,17 @@
       <c r="C119">
         <v>4.5149998664855904</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="E119" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119">
+        <v>49</v>
+      </c>
+      <c r="G119">
+        <v>5.0650000572204501</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -3034,8 +3632,17 @@
       <c r="C120">
         <v>0.64899992942810003</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="E120" t="s">
+        <v>31</v>
+      </c>
+      <c r="F120">
+        <v>47</v>
+      </c>
+      <c r="G120">
+        <v>6.0079998970031703</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -3045,8 +3652,17 @@
       <c r="C121">
         <v>5.1879999637603698</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="E121" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121">
+        <v>40</v>
+      </c>
+      <c r="G121">
+        <v>0.64299988746643</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -3056,8 +3672,17 @@
       <c r="C122">
         <v>0.74000000953674305</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -3067,8 +3692,17 @@
       <c r="C123" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="E123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123">
+        <v>100</v>
+      </c>
+      <c r="G123">
+        <v>0.53900003433227495</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -3078,8 +3712,17 @@
       <c r="C124">
         <v>5.7829999923706001</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="E124" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124">
+        <v>100</v>
+      </c>
+      <c r="G124">
+        <v>20.046000003814601</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -3089,8 +3732,17 @@
       <c r="C125">
         <v>4.0880000591277996</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="E125" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125">
+        <v>100</v>
+      </c>
+      <c r="G125">
+        <v>5.4849998950958199</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -3100,8 +3752,17 @@
       <c r="C126">
         <v>6.0030000209808296</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="E126" t="s">
+        <v>31</v>
+      </c>
+      <c r="F126">
+        <v>100</v>
+      </c>
+      <c r="G126">
+        <v>6.0149998664855904</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -3111,8 +3772,17 @@
       <c r="C127">
         <v>6.2310001850128103</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="E127" t="s">
+        <v>32</v>
+      </c>
+      <c r="F127">
+        <v>100</v>
+      </c>
+      <c r="G127">
+        <v>0.64600014686584395</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>19</v>
       </c>

--- a/database/Surf_knn.xlsx
+++ b/database/Surf_knn.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="38">
   <si>
     <t>Surf</t>
   </si>
@@ -142,12 +142,27 @@
   <si>
     <t>new\memory_blurred.jpg</t>
   </si>
+  <si>
+    <t>condame_blurred</t>
+  </si>
+  <si>
+    <t>condame_lumino</t>
+  </si>
+  <si>
+    <t>likeblack_45</t>
+  </si>
+  <si>
+    <t>likeblack_cropped</t>
+  </si>
+  <si>
+    <t>memory_blurred</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +174,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,9 +207,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V298"/>
+  <dimension ref="A1:AC298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AC83" sqref="O83:AC83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2280,7 +2304,7 @@
         <v>0.54500007629394498</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2291,7 +2315,7 @@
         <v>5.7709999084472603</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -2302,7 +2326,7 @@
         <v>6.3329999446868896</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2313,7 +2337,7 @@
         <v>0.83000016212463301</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2324,7 +2348,7 @@
         <v>15.4650001525878</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -2335,7 +2359,7 @@
         <v>6.375</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -2345,8 +2369,44 @@
       <c r="C54">
         <v>0.86800003051757801</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="N54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="U54" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="X54" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -2356,8 +2416,44 @@
       <c r="C55">
         <v>6.4259998798370299</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="N55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>100</v>
+      </c>
+      <c r="P55">
+        <v>100</v>
+      </c>
+      <c r="Q55">
+        <v>100</v>
+      </c>
+      <c r="R55">
+        <v>100</v>
+      </c>
+      <c r="S55">
+        <v>100</v>
+      </c>
+      <c r="T55">
+        <v>100</v>
+      </c>
+      <c r="U55">
+        <v>100</v>
+      </c>
+      <c r="V55">
+        <v>100</v>
+      </c>
+      <c r="W55">
+        <v>100</v>
+      </c>
+      <c r="X55">
+        <v>100</v>
+      </c>
+      <c r="Y55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -2370,8 +2466,44 @@
       <c r="E56" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="N56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O56">
+        <v>99</v>
+      </c>
+      <c r="P56">
+        <v>99</v>
+      </c>
+      <c r="Q56">
+        <v>100</v>
+      </c>
+      <c r="R56">
+        <v>100</v>
+      </c>
+      <c r="S56">
+        <v>100</v>
+      </c>
+      <c r="T56">
+        <v>100</v>
+      </c>
+      <c r="U56">
+        <v>100</v>
+      </c>
+      <c r="V56">
+        <v>100</v>
+      </c>
+      <c r="W56">
+        <v>100</v>
+      </c>
+      <c r="X56">
+        <v>100</v>
+      </c>
+      <c r="Y56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2381,8 +2513,44 @@
       <c r="C57" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="N57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57">
+        <v>71</v>
+      </c>
+      <c r="P57">
+        <v>73</v>
+      </c>
+      <c r="Q57">
+        <v>76</v>
+      </c>
+      <c r="R57">
+        <v>77</v>
+      </c>
+      <c r="S57">
+        <v>79</v>
+      </c>
+      <c r="T57">
+        <v>81</v>
+      </c>
+      <c r="U57">
+        <v>83</v>
+      </c>
+      <c r="V57">
+        <v>85</v>
+      </c>
+      <c r="W57">
+        <v>88</v>
+      </c>
+      <c r="X57">
+        <v>92</v>
+      </c>
+      <c r="Y57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -2401,8 +2569,44 @@
       <c r="G58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="N58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O58">
+        <v>34</v>
+      </c>
+      <c r="P58">
+        <v>39</v>
+      </c>
+      <c r="Q58">
+        <v>44</v>
+      </c>
+      <c r="R58">
+        <v>48</v>
+      </c>
+      <c r="S58">
+        <v>52</v>
+      </c>
+      <c r="T58">
+        <v>56</v>
+      </c>
+      <c r="U58">
+        <v>61</v>
+      </c>
+      <c r="V58">
+        <v>66</v>
+      </c>
+      <c r="W58">
+        <v>72</v>
+      </c>
+      <c r="X58">
+        <v>83</v>
+      </c>
+      <c r="Y58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2421,8 +2625,44 @@
       <c r="G59">
         <v>5.7400000095367396</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="N59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <v>5</v>
+      </c>
+      <c r="P59">
+        <v>6</v>
+      </c>
+      <c r="Q59">
+        <v>8</v>
+      </c>
+      <c r="R59">
+        <v>10</v>
+      </c>
+      <c r="S59">
+        <v>13</v>
+      </c>
+      <c r="T59">
+        <v>16</v>
+      </c>
+      <c r="U59">
+        <v>21</v>
+      </c>
+      <c r="V59">
+        <v>28</v>
+      </c>
+      <c r="W59">
+        <v>40</v>
+      </c>
+      <c r="X59">
+        <v>61</v>
+      </c>
+      <c r="Y59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -2441,8 +2681,44 @@
       <c r="G60" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="N60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>3</v>
+      </c>
+      <c r="U60">
+        <v>6</v>
+      </c>
+      <c r="V60">
+        <v>12</v>
+      </c>
+      <c r="W60">
+        <v>23</v>
+      </c>
+      <c r="X60">
+        <v>47</v>
+      </c>
+      <c r="Y60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -2461,8 +2737,44 @@
       <c r="G61">
         <v>6.0199999809265101</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="N61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>4</v>
+      </c>
+      <c r="V61">
+        <v>10</v>
+      </c>
+      <c r="W61">
+        <v>22</v>
+      </c>
+      <c r="X61">
+        <v>48</v>
+      </c>
+      <c r="Y61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -2481,8 +2793,44 @@
       <c r="G62" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="N62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
+        <v>4</v>
+      </c>
+      <c r="U62">
+        <v>8</v>
+      </c>
+      <c r="V62">
+        <v>14</v>
+      </c>
+      <c r="W62">
+        <v>25</v>
+      </c>
+      <c r="X62">
+        <v>48</v>
+      </c>
+      <c r="Y62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -2501,8 +2849,44 @@
       <c r="G63">
         <v>0.32999992370605402</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="N63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>4</v>
+      </c>
+      <c r="V63">
+        <v>9</v>
+      </c>
+      <c r="W63">
+        <v>21</v>
+      </c>
+      <c r="X63">
+        <v>47</v>
+      </c>
+      <c r="Y63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -2521,8 +2905,44 @@
       <c r="G64">
         <v>17.379000186920099</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="N64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>3</v>
+      </c>
+      <c r="U64">
+        <v>7</v>
+      </c>
+      <c r="V64">
+        <v>15</v>
+      </c>
+      <c r="W64">
+        <v>29</v>
+      </c>
+      <c r="X64">
+        <v>52</v>
+      </c>
+      <c r="Y64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -2541,8 +2961,44 @@
       <c r="G65">
         <v>5.0940001010894704</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="N65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>9</v>
+      </c>
+      <c r="W65">
+        <v>20</v>
+      </c>
+      <c r="X65">
+        <v>46</v>
+      </c>
+      <c r="Y65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -2561,8 +3017,44 @@
       <c r="G66">
         <v>6.2140002250671298</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="N66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>2</v>
+      </c>
+      <c r="T66">
+        <v>5</v>
+      </c>
+      <c r="U66">
+        <v>10</v>
+      </c>
+      <c r="V66">
+        <v>18</v>
+      </c>
+      <c r="W66">
+        <v>33</v>
+      </c>
+      <c r="X66">
+        <v>58</v>
+      </c>
+      <c r="Y66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -2581,8 +3073,44 @@
       <c r="G67">
         <v>0.63000011444091797</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="N67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>2</v>
+      </c>
+      <c r="U67">
+        <v>5</v>
+      </c>
+      <c r="V67">
+        <v>11</v>
+      </c>
+      <c r="W67">
+        <v>23</v>
+      </c>
+      <c r="X67">
+        <v>49</v>
+      </c>
+      <c r="Y67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -2601,8 +3129,44 @@
       <c r="G68" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="N68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>4</v>
+      </c>
+      <c r="V68">
+        <v>9</v>
+      </c>
+      <c r="W68">
+        <v>22</v>
+      </c>
+      <c r="X68">
+        <v>47</v>
+      </c>
+      <c r="Y68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2621,8 +3185,44 @@
       <c r="G69">
         <v>0.51500010490417403</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="N69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2</v>
+      </c>
+      <c r="U69">
+        <v>4</v>
+      </c>
+      <c r="V69">
+        <v>9</v>
+      </c>
+      <c r="W69">
+        <v>18</v>
+      </c>
+      <c r="X69">
+        <v>40</v>
+      </c>
+      <c r="Y69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2642,7 +3242,7 @@
         <v>16.2870001792907</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:29">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -2662,7 +3262,7 @@
         <v>5.0469999313354403</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:29">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2682,7 +3282,7 @@
         <v>6.0270001888275102</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:29">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -2701,8 +3301,56 @@
       <c r="G73">
         <v>0.63699984550475997</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="N73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC73" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2721,8 +3369,56 @@
       <c r="G74" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="N74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O74">
+        <v>100</v>
+      </c>
+      <c r="P74">
+        <v>99</v>
+      </c>
+      <c r="Q74">
+        <v>71</v>
+      </c>
+      <c r="R74">
+        <v>34</v>
+      </c>
+      <c r="S74">
+        <v>5</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -2741,8 +3437,56 @@
       <c r="G75">
         <v>0.33200001716613697</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="N75" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O75">
+        <v>100</v>
+      </c>
+      <c r="P75">
+        <v>99</v>
+      </c>
+      <c r="Q75">
+        <v>73</v>
+      </c>
+      <c r="R75">
+        <v>39</v>
+      </c>
+      <c r="S75">
+        <v>6</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -2761,8 +3505,56 @@
       <c r="G76">
         <v>20.240000009536701</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="N76" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O76">
+        <v>100</v>
+      </c>
+      <c r="P76">
+        <v>100</v>
+      </c>
+      <c r="Q76">
+        <v>76</v>
+      </c>
+      <c r="R76">
+        <v>44</v>
+      </c>
+      <c r="S76">
+        <v>8</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -2781,8 +3573,56 @@
       <c r="G77">
         <v>7.9690001010894704</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="N77" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="O77">
+        <v>100</v>
+      </c>
+      <c r="P77">
+        <v>100</v>
+      </c>
+      <c r="Q77">
+        <v>77</v>
+      </c>
+      <c r="R77">
+        <v>48</v>
+      </c>
+      <c r="S77">
+        <v>10</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2801,8 +3641,56 @@
       <c r="G78">
         <v>8.5989999771118093</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="N78" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O78">
+        <v>100</v>
+      </c>
+      <c r="P78">
+        <v>100</v>
+      </c>
+      <c r="Q78">
+        <v>79</v>
+      </c>
+      <c r="R78">
+        <v>52</v>
+      </c>
+      <c r="S78">
+        <v>13</v>
+      </c>
+      <c r="T78">
+        <v>2</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>2</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>2</v>
+      </c>
+      <c r="AA78">
+        <v>1</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -2821,8 +3709,56 @@
       <c r="G79">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="N79" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="O79">
+        <v>100</v>
+      </c>
+      <c r="P79">
+        <v>100</v>
+      </c>
+      <c r="Q79">
+        <v>81</v>
+      </c>
+      <c r="R79">
+        <v>56</v>
+      </c>
+      <c r="S79">
+        <v>16</v>
+      </c>
+      <c r="T79">
+        <v>3</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>4</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>3</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>5</v>
+      </c>
+      <c r="AA79">
+        <v>2</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -2841,8 +3777,56 @@
       <c r="G80" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="N80" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O80">
+        <v>100</v>
+      </c>
+      <c r="P80">
+        <v>100</v>
+      </c>
+      <c r="Q80">
+        <v>83</v>
+      </c>
+      <c r="R80">
+        <v>61</v>
+      </c>
+      <c r="S80">
+        <v>21</v>
+      </c>
+      <c r="T80">
+        <v>6</v>
+      </c>
+      <c r="U80">
+        <v>4</v>
+      </c>
+      <c r="V80">
+        <v>8</v>
+      </c>
+      <c r="W80">
+        <v>4</v>
+      </c>
+      <c r="X80">
+        <v>7</v>
+      </c>
+      <c r="Y80">
+        <v>3</v>
+      </c>
+      <c r="Z80">
+        <v>10</v>
+      </c>
+      <c r="AA80">
+        <v>5</v>
+      </c>
+      <c r="AB80">
+        <v>4</v>
+      </c>
+      <c r="AC80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2861,8 +3845,56 @@
       <c r="G81">
         <v>0.325999975204467</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="N81" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="O81">
+        <v>100</v>
+      </c>
+      <c r="P81">
+        <v>100</v>
+      </c>
+      <c r="Q81">
+        <v>85</v>
+      </c>
+      <c r="R81">
+        <v>66</v>
+      </c>
+      <c r="S81">
+        <v>28</v>
+      </c>
+      <c r="T81">
+        <v>12</v>
+      </c>
+      <c r="U81">
+        <v>10</v>
+      </c>
+      <c r="V81">
+        <v>14</v>
+      </c>
+      <c r="W81">
+        <v>9</v>
+      </c>
+      <c r="X81">
+        <v>15</v>
+      </c>
+      <c r="Y81">
+        <v>9</v>
+      </c>
+      <c r="Z81">
+        <v>18</v>
+      </c>
+      <c r="AA81">
+        <v>11</v>
+      </c>
+      <c r="AB81">
+        <v>9</v>
+      </c>
+      <c r="AC81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -2881,8 +3913,56 @@
       <c r="G82">
         <v>16.973999977111799</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="N82" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="O82">
+        <v>100</v>
+      </c>
+      <c r="P82">
+        <v>100</v>
+      </c>
+      <c r="Q82">
+        <v>88</v>
+      </c>
+      <c r="R82">
+        <v>72</v>
+      </c>
+      <c r="S82">
+        <v>40</v>
+      </c>
+      <c r="T82">
+        <v>23</v>
+      </c>
+      <c r="U82">
+        <v>22</v>
+      </c>
+      <c r="V82">
+        <v>25</v>
+      </c>
+      <c r="W82">
+        <v>21</v>
+      </c>
+      <c r="X82">
+        <v>29</v>
+      </c>
+      <c r="Y82">
+        <v>20</v>
+      </c>
+      <c r="Z82">
+        <v>33</v>
+      </c>
+      <c r="AA82">
+        <v>23</v>
+      </c>
+      <c r="AB82">
+        <v>22</v>
+      </c>
+      <c r="AC82">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2901,8 +3981,56 @@
       <c r="G83">
         <v>5.1059999465942303</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="N83" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="O83">
+        <v>100</v>
+      </c>
+      <c r="P83">
+        <v>100</v>
+      </c>
+      <c r="Q83">
+        <v>92</v>
+      </c>
+      <c r="R83">
+        <v>83</v>
+      </c>
+      <c r="S83">
+        <v>61</v>
+      </c>
+      <c r="T83">
+        <v>47</v>
+      </c>
+      <c r="U83">
+        <v>48</v>
+      </c>
+      <c r="V83">
+        <v>48</v>
+      </c>
+      <c r="W83">
+        <v>47</v>
+      </c>
+      <c r="X83">
+        <v>52</v>
+      </c>
+      <c r="Y83">
+        <v>46</v>
+      </c>
+      <c r="Z83">
+        <v>58</v>
+      </c>
+      <c r="AA83">
+        <v>49</v>
+      </c>
+      <c r="AB83">
+        <v>47</v>
+      </c>
+      <c r="AC83">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2921,8 +4049,56 @@
       <c r="G84">
         <v>6.4309999942779497</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="N84" s="2">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>100</v>
+      </c>
+      <c r="P84">
+        <v>100</v>
+      </c>
+      <c r="Q84">
+        <v>100</v>
+      </c>
+      <c r="R84">
+        <v>100</v>
+      </c>
+      <c r="S84">
+        <v>100</v>
+      </c>
+      <c r="T84">
+        <v>100</v>
+      </c>
+      <c r="U84">
+        <v>100</v>
+      </c>
+      <c r="V84">
+        <v>100</v>
+      </c>
+      <c r="W84">
+        <v>100</v>
+      </c>
+      <c r="X84">
+        <v>100</v>
+      </c>
+      <c r="Y84">
+        <v>100</v>
+      </c>
+      <c r="Z84">
+        <v>100</v>
+      </c>
+      <c r="AA84">
+        <v>100</v>
+      </c>
+      <c r="AB84">
+        <v>100</v>
+      </c>
+      <c r="AC84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2942,7 +4118,7 @@
         <v>0.64800000190734797</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:29">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2962,7 +4138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:29">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2982,7 +4158,7 @@
         <v>0.36899995803833002</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:29">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -3002,7 +4178,7 @@
         <v>16.287999868392902</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:29">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -3022,7 +4198,7 @@
         <v>7.9690001010894704</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:29">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -3042,7 +4218,7 @@
         <v>7.5100002288818297</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:29">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -3062,7 +4238,7 @@
         <v>0.66599988937377896</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:29">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -3082,7 +4258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:29">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -3102,7 +4278,7 @@
         <v>0.33899998664855902</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:29">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -3122,7 +4298,7 @@
         <v>20.618999958038302</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:29">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -3142,7 +4318,7 @@
         <v>7.9620001316070503</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:29">
       <c r="A96" t="s">
         <v>20</v>
       </c>
